--- a/files/Mathematical Perturbation Functions .xlsx
+++ b/files/Mathematical Perturbation Functions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roadm\Desktop\Attacks\roadmap.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD542C4-F4BB-483C-9733-0860E1ECCF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A959CF6B-4E12-4882-B980-6009280A8097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15990" xr2:uid="{3901D594-EE58-4F90-AAE3-6A55C4FD8F6C}"/>
   </bookViews>
@@ -1819,16 +1819,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1840,23 +1840,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2176,7 +2176,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2305050</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>69780</xdr:rowOff>
+      <xdr:rowOff>65970</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2218,7 +2218,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:colOff>2158365</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>320452</xdr:rowOff>
     </xdr:to>
@@ -2262,9 +2262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2181225</xdr:colOff>
+      <xdr:colOff>2186940</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>445997</xdr:rowOff>
+      <xdr:rowOff>440282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2306,7 +2306,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:colOff>2034540</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>193741</xdr:rowOff>
     </xdr:to>
@@ -2643,15 +2643,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C33D264-A0DC-4CE6-ADE2-1E6C1A81D9B1}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2672,12 +2672,12 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2746,12 +2746,12 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2817,16 +2817,16 @@
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
@@ -2835,16 +2835,16 @@
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
@@ -2853,16 +2853,16 @@
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -2871,12 +2871,12 @@
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
@@ -2889,14 +2889,14 @@
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
@@ -2905,14 +2905,14 @@
       <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
@@ -2932,19 +2932,19 @@
       <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="C36" s="18"/>
     </row>
     <row r="37" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2" t="s">
         <v>52</v>
       </c>
@@ -2995,6 +2995,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A2:A3"/>
@@ -3008,16 +3018,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
